--- a/cc/English .xlsx
+++ b/cc/English .xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="АБВГД" sheetId="1" state="visible" r:id="rId3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t xml:space="preserve">вітати</t>
   </si>
@@ -38,6 +38,69 @@
     <t xml:space="preserve">pea</t>
   </si>
   <si>
+    <t xml:space="preserve">білка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">squirrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">думка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ворог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">обирати</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chosen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">макіяж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пропозиція</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suggestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">необхідно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стати</t>
+  </si>
+  <si>
+    <t xml:space="preserve">become</t>
+  </si>
+  <si>
     <t xml:space="preserve">трястися</t>
   </si>
   <si>
@@ -48,6 +111,12 @@
   </si>
   <si>
     <t xml:space="preserve">shooken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сперечатися</t>
+  </si>
+  <si>
+    <t xml:space="preserve">argue</t>
   </si>
 </sst>
 </file>
@@ -123,8 +192,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,31 +390,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="32.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="32.39"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -360,14 +457,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="32.39"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -386,30 +495,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -427,34 +513,123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:D7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="32.39"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="32.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="32.39"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/cc/English .xlsx
+++ b/cc/English .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t xml:space="preserve">вітати</t>
   </si>
@@ -56,6 +56,18 @@
     <t xml:space="preserve">enemy</t>
   </si>
   <si>
+    <t xml:space="preserve">дивовижний</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">виконавець</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performer</t>
+  </si>
+  <si>
     <t xml:space="preserve">жарт</t>
   </si>
   <si>
@@ -117,6 +129,12 @@
   </si>
   <si>
     <t xml:space="preserve">argue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сміятися</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laugh</t>
   </si>
 </sst>
 </file>
@@ -390,10 +408,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -439,6 +457,22 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -465,15 +499,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="32.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="32.39"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -500,7 +534,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="32.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="32.39"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -531,56 +565,56 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -599,10 +633,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -612,24 +646,32 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/cc/English .xlsx
+++ b/cc/English .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor Demchenko\Downloads\oLd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185E2692-3627-42E1-8E2D-F789CE2074A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCE4D35-73F6-4EC1-A3EC-E7646A454B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АБВГД" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
   <si>
     <t>вітати</t>
   </si>
@@ -392,6 +392,18 @@
   </si>
   <si>
     <t>knot</t>
+  </si>
+  <si>
+    <t>мураха</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>ніжний</t>
+  </si>
+  <si>
+    <t>gentle</t>
   </si>
 </sst>
 </file>
@@ -870,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1026,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1190,6 +1202,22 @@
       </c>
       <c r="B17" s="6" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/cc/English .xlsx
+++ b/cc/English .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor Demchenko\Downloads\oLd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCE4D35-73F6-4EC1-A3EC-E7646A454B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C40A9-CCAB-4F30-B7B6-6086A7B7E7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,8 +28,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">МНОПР!$A$1:$D$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">СТУФХ!$A$1:$D$6</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -38,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
   <si>
     <t>вітати</t>
   </si>
@@ -404,6 +413,45 @@
   </si>
   <si>
     <t>gentle</t>
+  </si>
+  <si>
+    <t>прогулянка</t>
+  </si>
+  <si>
+    <t>stroll</t>
+  </si>
+  <si>
+    <t>мітинг</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>красти</t>
+  </si>
+  <si>
+    <t>steal</t>
+  </si>
+  <si>
+    <t>stole</t>
+  </si>
+  <si>
+    <t>схопити</t>
+  </si>
+  <si>
+    <t>grab</t>
+  </si>
+  <si>
+    <t>з'являються</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>навмисний</t>
+  </si>
+  <si>
+    <t>intentional</t>
   </si>
 </sst>
 </file>
@@ -880,10 +928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -936,6 +984,14 @@
       </c>
       <c r="B5" s="6" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1038,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1196,7 +1252,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>112</v>
       </c>
@@ -1204,7 +1260,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>118</v>
       </c>
@@ -1212,12 +1268,55 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/cc/English .xlsx
+++ b/cc/English .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor Demchenko\Downloads\oLd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\202x\2025\Python\ProjectEuler\cc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C40A9-CCAB-4F30-B7B6-6086A7B7E7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B034CD-9FAE-4528-8A0D-4B6169D9686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АБВГД" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="139">
   <si>
     <t>вітати</t>
   </si>
@@ -452,6 +452,18 @@
   </si>
   <si>
     <t>intentional</t>
+  </si>
+  <si>
+    <t>завдання</t>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <t>жахливий</t>
+  </si>
+  <si>
+    <t>awful</t>
   </si>
 </sst>
 </file>
@@ -928,10 +940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -992,6 +1004,22 @@
       </c>
       <c r="B6" s="6" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/cc/English .xlsx
+++ b/cc/English .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\202x\2025\Python\ProjectEuler\cc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor Demchenko\Downloads\oLd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B034CD-9FAE-4528-8A0D-4B6169D9686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4345E8-8FC9-4C0E-9CE9-28BF242A6FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АБВГД" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="144">
   <si>
     <t>вітати</t>
   </si>
@@ -464,6 +464,21 @@
   </si>
   <si>
     <t>awful</t>
+  </si>
+  <si>
+    <t>багато</t>
+  </si>
+  <si>
+    <t>plenty</t>
+  </si>
+  <si>
+    <t>турбувати</t>
+  </si>
+  <si>
+    <t>bother</t>
+  </si>
+  <si>
+    <t>призначення</t>
   </si>
 </sst>
 </file>
@@ -739,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -767,172 +782,184 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>101</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D14" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+      <sortCondition ref="A1:A14"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -942,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1122,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1150,205 +1177,217 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>127</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>134</v>
+    <row r="25" spans="1:2" ht="15" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D8" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <autoFilter ref="A1:D8" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D24">
+      <sortCondition ref="A1:A8"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1356,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1445,6 +1484,14 @@
       </c>
       <c r="B8" s="6" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/cc/English .xlsx
+++ b/cc/English .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktor Demchenko\Downloads\oLd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\202x\2025\Python\ProjectEuler\cc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4345E8-8FC9-4C0E-9CE9-28BF242A6FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166F52D0-5CEA-4B50-8C0E-0D3A9DDDB4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АБВГД" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="150">
   <si>
     <t>вітати</t>
   </si>
@@ -479,6 +479,24 @@
   </si>
   <si>
     <t>призначення</t>
+  </si>
+  <si>
+    <t>стажування</t>
+  </si>
+  <si>
+    <t>internship</t>
+  </si>
+  <si>
+    <t>істотний</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>складний</t>
+  </si>
+  <si>
+    <t>complicated</t>
   </si>
 </sst>
 </file>
@@ -969,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1058,343 +1076,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="32.3984375" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.5" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D6" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="32.3984375" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.5" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D8" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D24">
-      <sortCondition ref="A1:A8"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1421,6 +1102,351 @@
         <v>52</v>
       </c>
     </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D6" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="32.3984375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.5" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D8" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D24">
+      <sortCondition ref="A1:A8"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="32.3984375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.5" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" ht="18">
       <c r="A2" s="6" t="s">
         <v>29</v>
@@ -1494,10 +1520,26 @@
         <v>142</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D6" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/cc/English .xlsx
+++ b/cc/English .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\202x\2025\Python\ProjectEuler\cc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166F52D0-5CEA-4B50-8C0E-0D3A9DDDB4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB32670-CD9E-4A04-B86C-5FAE127BCF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АБВГД" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="158">
   <si>
     <t>вітати</t>
   </si>
@@ -497,6 +497,30 @@
   </si>
   <si>
     <t>complicated</t>
+  </si>
+  <si>
+    <t>цінний</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>зручний</t>
+  </si>
+  <si>
+    <t>convenient</t>
+  </si>
+  <si>
+    <t>килим</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>фургон</t>
+  </si>
+  <si>
+    <t>van</t>
   </si>
 </sst>
 </file>
@@ -985,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1067,6 +1091,14 @@
         <v>138</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D3" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1076,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1164,6 +1196,14 @@
       </c>
       <c r="B9" s="6" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1421,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15" customHeight="1"/>
@@ -1536,6 +1576,14 @@
         <v>149</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D6" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1545,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2E276C-434C-472D-8300-A88BF848C982}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1587,6 +1635,14 @@
         <v>89</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D3" xr:uid="{FC2E276C-434C-472D-8300-A88BF848C982}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
